--- a/Record.xlsx
+++ b/Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC99869-F038-4CE9-ABB4-C35301F4DBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB0400-86A1-4133-9837-37F024423A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="780" windowWidth="28635" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM52" sqref="AM52"/>
+    <sheetView tabSelected="1" topLeftCell="AB24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS59" sqref="AS59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
